--- a/Notificações de Multas - Condutor Identificado.xlsx
+++ b/Notificações de Multas - Condutor Identificado.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Veiculos\VEÍCULOS - RN\CPO-VEÍCULOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clnogueira\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18810" windowHeight="6780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4594" uniqueCount="1056">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4650" uniqueCount="1065">
   <si>
     <t>Nº Fluig</t>
   </si>
@@ -3192,6 +3192,33 @@
   </si>
   <si>
     <t>AE00768941</t>
+  </si>
+  <si>
+    <t>2273876</t>
+  </si>
+  <si>
+    <t>AE00735620</t>
+  </si>
+  <si>
+    <t>2274099</t>
+  </si>
+  <si>
+    <t>R19901657</t>
+  </si>
+  <si>
+    <t>2274104</t>
+  </si>
+  <si>
+    <t>SANTA CRUZ</t>
+  </si>
+  <si>
+    <t>TC003333</t>
+  </si>
+  <si>
+    <t>2277390</t>
+  </si>
+  <si>
+    <t>AE00740144</t>
   </si>
 </sst>
 </file>
@@ -3199,7 +3226,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="&quot;R$&quot;#,##0.00;\-&quot;R$&quot;#,##0.00;&quot;R$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -3233,7 +3260,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3252,8 +3279,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P328">
-  <autoFilter ref="A1:P328"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:P332">
+  <autoFilter ref="A1:P332"/>
   <tableColumns count="16">
     <tableColumn id="1" name="Nº Fluig"/>
     <tableColumn id="2" name="UF"/>
@@ -3539,17 +3566,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P328"/>
+  <dimension ref="A1:P332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="F322" workbookViewId="0">
+      <selection activeCell="S332" sqref="S332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41" bestFit="1" customWidth="1"/>
-    <col min="9" max="16" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -19950,6 +19990,206 @@
       </c>
       <c r="P328" s="2">
         <v>195.23</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B329" t="s">
+        <v>17</v>
+      </c>
+      <c r="C329" t="s">
+        <v>851</v>
+      </c>
+      <c r="D329" t="s">
+        <v>78</v>
+      </c>
+      <c r="E329" t="s">
+        <v>24</v>
+      </c>
+      <c r="F329" t="s">
+        <v>24</v>
+      </c>
+      <c r="G329" t="s">
+        <v>21</v>
+      </c>
+      <c r="H329" t="s">
+        <v>349</v>
+      </c>
+      <c r="I329" t="s">
+        <v>350</v>
+      </c>
+      <c r="J329" t="s">
+        <v>24</v>
+      </c>
+      <c r="K329" t="s">
+        <v>24</v>
+      </c>
+      <c r="L329" t="s">
+        <v>24</v>
+      </c>
+      <c r="M329" t="s">
+        <v>1057</v>
+      </c>
+      <c r="N329" t="s">
+        <v>24</v>
+      </c>
+      <c r="O329" s="1">
+        <v>1</v>
+      </c>
+      <c r="P329" s="2">
+        <v>195.23</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B330" t="s">
+        <v>17</v>
+      </c>
+      <c r="C330" t="s">
+        <v>569</v>
+      </c>
+      <c r="D330" t="s">
+        <v>19</v>
+      </c>
+      <c r="E330" t="s">
+        <v>396</v>
+      </c>
+      <c r="F330" t="s">
+        <v>397</v>
+      </c>
+      <c r="G330" t="s">
+        <v>21</v>
+      </c>
+      <c r="H330" t="s">
+        <v>984</v>
+      </c>
+      <c r="I330" t="s">
+        <v>985</v>
+      </c>
+      <c r="J330" t="s">
+        <v>24</v>
+      </c>
+      <c r="K330" t="s">
+        <v>24</v>
+      </c>
+      <c r="L330" t="s">
+        <v>24</v>
+      </c>
+      <c r="M330" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N330" t="s">
+        <v>24</v>
+      </c>
+      <c r="O330" s="1">
+        <v>1</v>
+      </c>
+      <c r="P330" s="2">
+        <v>130.16</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B331" t="s">
+        <v>17</v>
+      </c>
+      <c r="C331" t="s">
+        <v>689</v>
+      </c>
+      <c r="D331" t="s">
+        <v>112</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F331" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G331" t="s">
+        <v>21</v>
+      </c>
+      <c r="H331" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I331" t="s">
+        <v>1002</v>
+      </c>
+      <c r="J331" t="s">
+        <v>24</v>
+      </c>
+      <c r="K331" t="s">
+        <v>24</v>
+      </c>
+      <c r="L331" t="s">
+        <v>24</v>
+      </c>
+      <c r="M331" t="s">
+        <v>1062</v>
+      </c>
+      <c r="N331" t="s">
+        <v>24</v>
+      </c>
+      <c r="O331" s="1">
+        <v>1</v>
+      </c>
+      <c r="P331" s="2">
+        <v>130.16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B332" t="s">
+        <v>17</v>
+      </c>
+      <c r="C332" t="s">
+        <v>539</v>
+      </c>
+      <c r="D332" t="s">
+        <v>78</v>
+      </c>
+      <c r="E332" t="s">
+        <v>24</v>
+      </c>
+      <c r="F332" t="s">
+        <v>24</v>
+      </c>
+      <c r="G332" t="s">
+        <v>21</v>
+      </c>
+      <c r="H332" t="s">
+        <v>924</v>
+      </c>
+      <c r="I332" t="s">
+        <v>925</v>
+      </c>
+      <c r="J332" t="s">
+        <v>24</v>
+      </c>
+      <c r="K332" t="s">
+        <v>24</v>
+      </c>
+      <c r="L332" t="s">
+        <v>24</v>
+      </c>
+      <c r="M332" t="s">
+        <v>1064</v>
+      </c>
+      <c r="N332" t="s">
+        <v>24</v>
+      </c>
+      <c r="O332" s="1">
+        <v>1</v>
+      </c>
+      <c r="P332" s="2">
+        <v>293.47000000000003</v>
       </c>
     </row>
   </sheetData>
